--- a/import_test/lsjl_test.xlsx
+++ b/import_test/lsjl_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\import_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD685E-2413-884A-A70F-636F4A906E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57232C64-148F-4224-B84F-F4F585619D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21640" yWindow="4440" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="16875" yWindow="3360" windowWidth="30945" windowHeight="15015" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -575,22 +575,23 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -612,7 +613,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -668,7 +669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>19</v>
